--- a/literature_research/FS_scopus/FS_smallscale.xlsx
+++ b/literature_research/FS_scopus/FS_smallscale.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +764,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Communication as Resistance in Food Politics</t>
+          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
         </is>
       </c>
       <c r="C10" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>The global food system is a site of domination and resistance for those opposed to the conventional model of industrial agriculture. This article applies a political economy of communication lens to the relations of power that operate in the field of food politics where tensions involving food security, peak oil, and anthropogenic climate change present major challenges. At the heart of this trilemma social movements of small-scale farmers contest the dominant narratives that biotechnology, development, and free trade will feed the world. This article describes how farmers’ movements in Brazil, Chile, and Cuba apply resistive epistemologies in to complement for agroecological production methods. The purpose is to develop political consciousness among rural food producers and workers who are subjugated under neo-liberalism. The article also presents the challenges that members of the international farmers’ movement, La Vìa Campesina, face in advancing their political influence through participation in invited spaces such as the UN Food and Agriculture Organisation’s World Committee for Food Security. © The Author 2018</t>
+          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -800,15 +800,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Analysing agricultural investment from the realities of small-scale food providers: grounding the debates</t>
+          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Over the past decade, agricultural investment has been presented as a catchall solution to a converging set of global crises, often with poor rural communities as the proclaimed beneficiaries. Yet the promises of such investment, such as poverty alleviation and improved food access, are routinely at odds with realities on the ground. This article offers frameworks for analysis of agricultural investment that are grounded in the realities of small-scale food providers, drawing from two studies. The first study employs a right to food framework to identify the main channels through which food for consumption is procured by small-scale food providers and the factors impacting these channels. It draws on empirical data from within the Southern Agricultural Growth Corridor of Tanzania (SAGCOT), an investment model promised to lift rural communities out of poverty, which reflects a regional trend. Based on the shortcomings of the large-scale investments examined, the second study employs a food sovereignty framework to explore alternative forms of investment envisioned and/or already being put into practice by small-scale food providers in the SAGCOT area and elsewhere in Tanzania. While two different frameworks formed the basis of two different studies, both the studies and their frameworks are interrelated. The final section of this article makes the case for why both the right to food and food sovereignty are essential lenses for understanding agricultural investment vis-à-vis small-scale food providers and the ways in which they can serve as complementary tools for effective analysis. © 2018, © 2018 Southseries Inc., www.thirdworldquarterly.com.</t>
+          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -836,7 +836,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Traditional seed and exchange systems cement social relations and provide a safety net: A case study from KwaZulu-Natal, South Africa</t>
+          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
         </is>
       </c>
       <c r="C12" t="n">
@@ -844,7 +844,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Millions of small-scale farmers on the African continent save and exchange the seed of their traditional crops, yet the social and cultural values of these systems remain under-researched. Through ethnographic research conducted in the KwaZulu-Natal Province of South Africa, this study sets out to improve understanding about the mechanisms and significance of traditional seed exchange networks. Findings suggest that traditional crops are central; their seed is highly valued; and systems of exchange play complex and nuanced roles. Critical for food sovereignty, these systems act as a back-up in the case of harvest failure, and enhance social cohesion through strengthening community and familial ties. © 2017 Taylor &amp; Francis.</t>
+          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -872,15 +872,15 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>The Evolution of Food Security Governance and Food Sovereignty Movement in China: An Analysis from the World Society Theory</t>
+          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Originating in a 1983 Mexican Government Program, the term ‘food sovereignty’ was coined in 1996 by La Via Campesina—a global peasant network—to address concerns within the civil society for food security. Rather than to accept the neoliberal framework of mainstream food security definition and governance, the food sovereignty movement seeks to view food security as the right of peoples to define their own food and agriculture systems with limited corporation intervention. As a result, food production should be geared toward the domestic and local markets and not toward international trade that only benefits corporations. This food sovereignty movement was inducted into China in 2013 just as China’s agricultural systems were shifting toward a more corporate-centric structure that increasingly exploits the small-scale farmers. A question was hence raised: How have the global civil society networks influenced the Chinese civil society and promoted China’s local food sovereignty movement? Through the world society theory, the author has identified social forums, such as international conferences and social media channels, as an expedient means for interactions. However, as the Chinese government continues to develop a corporate-centric food security governance system and tighten its civil society space, the impacts of China’s food sovereignty movement remain unclear. © 2017, Springer Science+Business Media B.V.</t>
+          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -908,15 +908,15 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Neo-developmentalism and a “vía campesina” for rural development: Unreconciled projects in Ecuador's Citizen's Revolution</t>
+          <t>Rebalance power and strengthen farmers’ position in the EU food system? A CDA of the Farm to Fork Strategy</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>From the outside, it appears that the government of President Rafael Correa in Ecuador has put in place a legal and policy framework for a vía campesina model of rural development, inspired by food sovereignty and buen vivir. Recent studies have, however, concluded that a considerable disjuncture exists between this framework and the actual agricultural policies and programmes implemented by the government. In this paper, I provide a broad overview of the agricultural and rural development policies under the Correa government and analyse some of the causes of the gap between the policy framework and policy implementation. I argue that Ecuador under Correa speaks to the difficulties of reconciling a vía campesina approach to rural development with a neo-developmental economic model. I focus on several issues in particular in order to explain the disjuncture: how the growth of “vía campesina” proposals and political discourse in Ecuador since the 1980s coincided with significant processes of agrarian change; the transformation of rural social movement federations from a sociopolitical force into a political/electoral force and the subsequent decline of these movements; and the deepening integration of small-scale producers into domestic agribusiness commodity chains and the growth of national agribusiness firms during the Correa government. © 2017 John Wiley &amp; Sons Ltd</t>
+          <t>The Farm to Fork (F2F) Strategy at the heart of the European Union’s Green Deal set out to create a “just transition” towards a sustainable food system, with benefits for all actors. We conducted a critical discourse analysis (CDA) to explore discourses around power in the food system and farmers’ position in the communication and implementation of the Farm to Fork Strategy. Discourse analysis encapsulates various scientific methodologies for deciphering the meaning behind the creation and communication of different forms of language and identify power dynamics, amongst other aspects. We identified two prior discourses in one of the objectives of the European Union’s new Common Agricultural Policy (2023-27). Our analysis found that the discourses, namely “rebalance power in food system” and “strengthening farmers’ position in value chains,” are marginalized in favour of an innovation-investment discourse, indicative of greater financialization and technologization based on techno-finances fixes in transforming the European Union agri-food system. We argue that entities representing agri-business interests have been influential in the policymaking process and voices representing smallholder and medium-sized farmers’ transformational discourses have been excluded. © The Author(s) 2023.</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -944,31 +944,607 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>The Prism of Expanding Peasants' Rights: A Critical Investigation of Diverse Frames Applied to la Vía Campesina's Human Rights Engagements</t>
+          <t>Building the intrinsic infrastructure of agroecology: collectivising to deal with the problem of the state</t>
         </is>
       </c>
       <c r="C15" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Corporate actors in capitalist food systems continue to consolidate ownership of the means of production in ever fewer hands, posing a critical barrier to food sovereignty and to an agroecological transition. Further, corporate influence on the state is often direct and blatant, but there are also more insidious governance barriers– hegemonic structures of power and ‘common sense’ theories of value that exclude smallholders and local communities from participation in decision-making processes. This is especially pertinent in land use planning and in building processing facilities, usually referred to as ‘value chain infrastructure’, or what I call the ‘intrinsic infrastructure of agroecology’. Using a case study approach, I evaluate the successes and failures of two campaigns for agrarian reform in the Australian state of Victoria, concluding that civil society must act collectively to gain the thick legitimacy needed to work with the state to enact enabling policies for an agroecological transition. © The Author(s) 2024.</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>‘Insiders eating home-grown food’, home gardens of Chinese smallholders, and hidden resistance in the food regime transition</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Scholarly interest in the counter-movement during the third food regime transition has mainly been focused on open resistance. However, that view omits the grand picture consisting of 230 million Chinese smallholders and their everyday practices. This paper analyzes home gardening by Chinese smallholders based on a 10-year follow-up investigation. It reveals that their goal is to achieve ‘insiders eating home-grown food’, constituting a hidden and unconfrontational resistance to commercialization and globalization. Moreover, such resistance has formed a powerful force with strategic importance in China, having the potential to enlighten the counter-movement and thereby reshape the food regime. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Food systems in depressed and contested agro-territories: Participatory Rural Appraisal in Odemira, Portugal</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>2023</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Farming regions in Europe, particularly in the South, are increasingly feeling the effects of climate change due to factors such as drought, extreme weather events, and desertification, with severe consequences for food security and food sovereignty. Additionally, decades of rural mismanagement have left countless of these farming territories severely depressed as well as at the mercy of competition for their natural resources. This paper presents and discusses the results of a Participatory Rural Appraisal conducted in the region of Odemira, Southwest Portugal. Rooted in the frameworks of agroecology and food democracy, this mixed methodology aims to support people in multiply stressed agro-territories to diagnose the state of their food systems and agroecosystems from a democratic and ecological point of view and engage local actors in imagining fairer and healthier food futures for their regions. Local food actors were invited to identify and qualify the main problems in the region's food systems, complemented by an agroecological assessment of farm production systems. The results of the study confirm the status of Odemira as a depressed and contested agro-territory, whose social, economic, and ecological vulnerability is being compounded by the clash between the model of traditional smallholder farming and that of large-scale intensive agriculture. The study also shows the potential of sustainable farming practices as well as collaboration between the different food actors to support an agroecological transition in the region. However, to jointly realise food democracy and food system sustainability, the tensions resulting from the current political support for hyper-industrialisation and the lack of democratic, institutional, and legal mechanisms available to local actors will need to be addressed head-on. Copyright © 2023 Horstink, Schwemmlein and Encarnação.</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Farm-level pathways to food security: beyond missing markets and irrational peasants</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Development projects in Sub-Saharan Africa propose to alleviate hunger in rural areas by introducing new agricultural practices and technologies, yet there is limited empirical evidence of how an agricultural intervention can lead farming households to transition to food security. Research on food security pathways considers agricultural interventions that increase farmers’ income to be particularly effective for reducing food insecurity. Consistent with this stance, Malawian agricultural policy aims to address hunger by encouraging smallholder farmers to intensify and commercialize maize production. This paper explores if smallholders’ market and livelihood orientations do indeed lead them to favor an income pathway to food security. Qualitative analysis of 60 smallholder farmer interviews in Malawi found that, upon achieving improvements in production yields and diversity, rather than commercialize, many farmers re-organized their production and consumption to reduce market dependency. Farmers deployed this strategy to increase their food security, explaining that the choice to self-provision food and farming inputs was both an expression of farming identity and a lived understanding of their marginal position in commodity markets. The author finds that, in failing to consider how production relations affect food access, scholarship inadequately theorizes farm-level food security transitions and reproduces discursive framings of hunger. Food sovereignty narratives more accurately captured what mattered for Malawian smallholders’ food security, suggesting that engagement with this concept could improve scientific understandings of food security transitions. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Who is resilient in Africa's Green Revolution? Sustainable intensification and Climate Smart Agriculture in Rwanda</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Under the banner of a “New Green Revolution for Africa,” agricultural intensification programs aim to make smallholder agriculture more productive as well as "climate smart". As with Green Revolutions in Asia and Mexico, agricultural innovations (hybrid seeds, agronomic engineering, market linkages,and increased use of fertilizer and pesticides) are promoted as essential catalysts of agriculture-led economic growth. Intensification programs are now frequently linked to Climate Smart Agriculture (CSA), which attempts to build resilience and reduce greenhouse gas emissions while increasing crop yields. This article considers who and what is resilient in Africa's Green Revolution. We report on a multi-season study of smallholder food producers' experiences with Rwanda's Crop Intensification Program (CIP) and related policies that aim to commercialize subsistence agriculture while implementing CSA. We suggest that there are fundamental limits to the climate resilience afforded by CSA and development efforts rooted in Green Revolution thinking. Our findings illustrate that such efforts foreground technology and management adjustments in ways that have reduced smallholder resilience by inhibiting sovereignty over land use, decreasing livelihood flexibility, and constricting resource access. We put forth that rural development policies could better promote climate-resilient livelihoods through: 1) adaptive governance that enables smallholder land use decision-making; 2) support for smallholder food producers’ existing agro-ecological strategies of intensification; 3) participatory approaches to visualize and correct for inequalities in local processes of social-ecological resilence Such considerations are paramount for meeting the United Nations Sustainable Development Goals and building climate-resilient food systems. © 2020 The Authors</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>1</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Transition to agroecology for improved food security and better living conditions: case study from a family farm in Pinar del Río, Cuba</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The process of transition to agroecology of family farms is a topic of great importance in Cuba and the need to support family farming is gaining worldwide attention, while agroecology has been recognized as the most promising approach for the sustainable development of smallholder farmers. This work analyzes the process of agroecological conversion implemented by a family farm in western Cuba, highlighting the causes that enabled the process of transition and examining its effects on the family’s food security and livelihoods. The study shows how all the four aspects of food security–availability, access, stability, and utilization–have improved after the transition to agroecology, while positive impacts are also registered in soil quality, environmental sustainability, and resilience. From the point of view of economic sustainability, the transition has had high costs at the beginning but, after three years, agroecological production is resulting in increased income and better living conditions. The work also suggests actions to be implemented in order to advance in the process of transition to agroecology and hence achieve full food sovereignty. © 2020 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Alternative discourses around the governance of food security: A case study from Ethiopia</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>2020</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Global discourses on the governance of food security span competing approaches. For example, a neoliberal approach advocates commercialized, industrial agriculture, while food sovereignty and resilience are part of an alternative discourse to food security that prioritizes locally-based agroecological food production. Understanding how global discourses play out locally and how they impact the environment and biodiversity is important to identify appropriate pathways towards sustainability. In addition to their effects on food security, different approaches could reinforce or impede the success of biodiversity conservation because of the strong interdependence of food security and ecosystems. We applied the Q-methodology to examine alternative approaches to food security and biodiversity conservation pursued by 50 stakeholders from local to national levels in southwestern Ethiopia. We identified four distinct approaches, focusing on (1) smallholder commercialization, (2) agroecology and resilience, (3) local economy and equity, and (4) market liberalization. All approaches prioritized smallholders, but perspectives on how to achieve food security varied. Agricultural intensification, commercialization, and profit were widely considered important, while support for agroecology and resilience was largely restricted to non-government organizations. With the exception of supporters of the agroecology and resilience approach, biodiversity conservation was considered as a secondary goal. We conclude it is important to acknowledge plurality of food security approaches because local conditions are characterized by a multiplicity of stakeholder interests, and because food security is a complex problem that requires a multidimensional approach. However, major contradictions among existing approaches need to be reconciled, and the agroecology and resilience approach should be strengthened to ensure the sustainable achievement of food security and biodiversity conservation. © 2019 Elsevier B.V.</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>1</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Enhancing smallholder resilience through place-based knowledge and resource generation</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Rice systems are of particular significance to building climate resilience in the Philippines. This research brief summarizes a case study that comparatively measures differences in climate resilience between organic and conventional rice systems in four neighboring villages in Negros Occidental Province, as well as explores features of smallholder rice systems that are significant to building resilience. Data were collected through surveys, interviews, focus groups, and participant observation. A participatory approach was applied to account for socioecological context and to identify targeted interventions for enhancing climate resilience based on local conditions and farmer experiences. The results indicate that (a) of the participating rice systems, organic systems exhibit greater resilience than their conventional counterparts; (b) the current institutional arrangement prevents smallholders from transitioning to organic; and (c) a polycentric food sovereignty development approach helps Philippine smallholders overcome these institutional barriers, as well as builds smallholder capacities for resilience by supporting place-based knowledge and resource generation. More effort is needed to explore, analyze, and strengthen such polycentric food sovereignty interventions for climate change. © 2019 by the Author.</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>African Green Revolution, food sovereignty and constrained livelihood choice in Mozambique</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>2018</v>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Since its foundation in 1993, La Vía Campesina has surged to the forefront of the global alter-globalization movement of movements, mobilizing human rights discourse to promote small-scale sustainable agriculture as a key component of social justice, equity, dignity, and autonomy everywhere. This literature review argues that food sovereignty - La Vía Campesina's best known, rights-based innovation - inflects a range of other interrelated but distinct frames that variously foreground peasants' rights, "peasantness," land, cultural recognition, and collective emancipation, prefiguring an array of prospects for the expansion of human rights to peasants and other marginalized populations confronting the failures of capitalist globalization. © 2018 Koninklijke Brill NV, Leiden, The Netherlands.</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>_</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>This article examines the complicated food security agendas of the African Green Revolution and the food sovereignty models in Mozambique. Drawing on fieldwork conducted by the author in Mozambique in 2014 and 2015, the paper analyses how smallholder farmers engage with these two agrarian models. Whereas the literature frequently presents the African Green Revolution and the food sovereignty in oppositional frames, this paper finds that farmers in Mozambique utilize some of the tools that these models offer in complementary rather than competing ways. One such area is the use of commercial hybrid seeds and herbicides by some farmers associated with food sovereignty, an approach that runs counter to food sovereignty’s principles of agroecology. In Mozambique, farmers’ “lived experience” of food sovereignty is more a strategic response to their limited livelihood options, using whatever tools are available to them, rather than a resistance to power. © 2018, © 2018 Canadian Association of African Studies.</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>An initiative for the study and use of genetic diversity of domesticated plants and their wild relatives</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Domestication has been influenced by formal plant breeding since the onset of intensive agriculture and the Green Revolution. Despite providing food security for some regions, intensive agriculture has had substantial detrimental consequences for the environment and does not fulfill smallholder’s needs under most developing countries conditions. Therefore, it is necessary to look for alternative plant production techniques, effective for each environmental, socio-cultural, and economic conditions. This is particularly relevant for countries that are megadiverse and major centers of plant domestication and diversification. In this white paper, a Mexico-centered initiative is proposed, with two main objectives: (1) to study, understand, conserve, and sustainably use the genetic diversity of domesticated plants and their wild relatives, as well as the ongoing evolutionary processes that generate and maintain it; and (2) to strengthen food and forestry production in a socially fair and environmentally friendly way. To fulfill these objectives, the initiative focuses on the source of variability available for domestication (genetic diversity and functional genomics), the context in which domestication acts (breeding and production) and one of its main challenges (environmental change). Research on these components can be framed to target and connect both the theoretical understanding of the evolutionary processes, the practical aspects of conservation, and food and forestry production. The target, main challenges, problems to be faced and key research questions are presented for each component, followed by a roadmap for the consolidation of this proposal as a national initiative. © 2018 Mastretta-Yanes, Acevedo Gasman, Burgeff, Cano Ramírez, Piñero and Sarukhán.</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>The insecurity of food security in Russia’s Far North</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>The food security model envisions food supply from industrial agriculture, food production from smallholders, and food imports. The food sovereignty model emphasizes locally-sourced food from sustainable agriculture and implies self-sufficiency while being silent on the role of imports. This article argues that neither model fits Russia’s Far North well. Residents of the Far North are generally food secure based on consumption, but their food security is insecure because of questions surrounding the reliability of food supply. The article suggests four additional factors to the food security model to sensitize it to the Russian Far North. © 2018, © 2018 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>1</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Framing the food poverty question: Policy choices and livelihood consequences in Indonesia</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Since 2008, amidst fears of vulnerabilities related to climate change, price volatility and global food shortages, an increasingly conflicted policy field has emerged in the global south. Competing policy narratives provide for rival policy orientations with respect to food policy, land rights, the environment and justice. This paper considers the implications of different choices associated with these rival concepts in one case – that of Indonesian Kalimantan. The paper shows how predominant framings of ‘food sovereignty’, ‘food self-sufficiency’ and ‘food security’ support scalar strategies that empower particular actors and agendas. While narratives focused on national food sovereignty support large-scale food estates in ways that fit a particular politics of food, they overlook the specific livelihood challenges facing rural populations and the problems of food poverty in marginal landscapes. Localist narratives of ‘food sovereignty’ focus on enhancing smallholder access and control over productive resources and diversification in ways that are better suited to the geography of production, but they are yet to address the political anxieties presented by food questions at the national level. If policy choices are to deal with the underlying issues, then the alternative values, guiding assumptions and scalar strategies encompassed by rival narratives need to be appraised and reconciled with the specific livelihood challenges of rural people and the need to secure an inclusive and equitable society in a changing global environment. © 2017</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>1</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Livelihoods crises in Vidarbha, India: Food sovereignty through traditional farming systems as a possible solution</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>The Vidarbha region in Maharashtra, India, home to 3.4 million smallholder farmers, is a major cotton-producing region in one of the wealthiest Indian states. However, between 1995 and 2013, more than 60,000 farmers took their own lives. Many of these suicides have been linked to extreme debt created by the expensive mono-cropping of Bt cotton. Some farming households have responded to these pressures by abandoning Bt cotton growing and turning to sustainable agriculture using traditional mixedcropping methods. Yet the question remains: have the changes produced better livelihoods in Vidarbha? Using a food sovereignty framework, we assess the impact of these changes through an analysis of a 200-household survey across six districts in Vidarbha. We also explore the meaning of food sovereignty for those who practise it, seeking to better understand some of the complexities and experiences associated with the term. © 2017 South Asian Studies Association of Australia.</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>1</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Is Oil Palm Expansion a Challenge to Agroecology? Smallholders Practising Industrial Farming in Mexico</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>2018</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Agroecology has become a powerful alternative paradigm for rural development. In contrast to conventional approaches, this paradigm shifts the emphasis from technology and markets to local knowledge, social justice and food sovereignty, to overcome rural poverty and environmental degradation. However, the spread of this approach faces several obstacles. This paper deals with one of these obstacles: the ‘preference’ of smallholders for industrial farming. We specifically analyse the widespread uptake up of oil palm by smallholders in Chiapas. Contrary to agro-ecological assumptions, oil palm proved favourable to smallholders in Chiapas because of historical and contemporary state–peasant relations and the advantageous economic circumstances within the oil palm sector. Based on this research, we identify four challenges for agroecology: (i) the existence of contradictory interests within the peasantry as a result of social differentiation; (ii) the role of the state in making conventional development models relatively favourable to smallholders; (iii) the prevalence of modernization ideologies in many rural areas; and (iv) the need for this paradigm to acknowledge smallholders' agency also when engaged in industrial farming. These challenges need to be tackled for agroecology to offer viable alternatives in a context of agro-industrialization. © 2016 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>1</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Food or flowers? Contested transformations of community food security and water use priorities under new legal and market regimes in Ecuador's highlands</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>During the past three decades, the Pisque watershed in Ecuador's Northern Andes has become the country's principal export-roses producing area. Recently, a new boom of local smallholders have established small rose greenhouses and joined the flower-export business. This has intensified water scarcity and material/discursive conflicts over water use priorities: water to defend local-national food sovereignty or production for export. This paper examines how including peasant flower farms in the capitalist dream - driven by a 'mimetic desire' and copying large-scale capitalist flower-farm practices and technologies - generates new intra-community conflicts over collective water rights, extending traditional class-based water conflicts. New allocation principles in Ecuador's progressive 2008 Constitution and 2014 Water Law prioritising food production over flowers' industrial water use are unlikely to benefit smallholder communities. Instead, decision-making power for peasant communities and their water users' associations on water use priority would enable water user prioritization according to smallholders' own preferences. © 2016 Elsevier Ltd.</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>1</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>From world hunger to food sovereignty: Food ethics and human development</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>The role of Amartya Sen's early work on famine notwithstanding, food security is generally seen as but one capability among many for scholars writing in development ethics. The early literature on the ethics of hunger is summarized to show how Sen's Poverty and Famines was written in response to debates of past decades, and a brief discussion of food security as a capability follows. However, Sen's characterization of smallholder food security also supports the development of agency in both a political and an economic sense. Economic agency is discussed and tied to longstanding literatures on the moral significance of farming within political economy. Finally, while the newly emergent literature on food sovereignty includes many themes, it is shown to be re-Articulating arguments that stress smallholder's economic agency as a development goal. This pattern of argument thus provides a way to reconcile at least some of the claims being advanced under the banner of food sovereignty with the human development approach, while also restoring food ethics to a more central place in the overall discourse of development ethics. © 2015 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>‘Quiet Food Sovereignty’ as Food Sovereignty without a Movement? Insights from Post-socialist Russia</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Abstract: What does food sovereignty look like in settings where rural social movements are weak or non-existent, such as in countries with post-socialist, semi-authoritarian regimes? Focusing on Russia, we present a divergent form of food sovereignty. Building on the concept of ‘quiet sustainability’, we present a dispersed, muted, but clearly bottom-up variant we term ‘quiet food sovereignty’. In the latter, the role of the very productive smallholdings is downplayed by the state and partly by the smallholders themselves. Those smallholdings are not seen as an alternative to industrial agriculture, but subsidiary to it (although superior in terms of sociality and healthy, environmentally friendly produce). As such, ‘quiet food sovereignty’ deviates from the overt struggle frequently associated with food sovereignty. We discuss the prospects of ‘quiet food sovereignty’ to develop into a full food sovereignty movement, and stress the importance of studying implicit everyday forms of food sovereignty. © 2015 Taylor &amp; Francis.</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>_</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>_</t>
         </is>
